--- a/shiny/interpopulation-prioritization/data/priority_ranking_matrix_inputs.xlsx
+++ b/shiny/interpopulation-prioritization/data/priority_ranking_matrix_inputs.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabec\Documents\R\interpopulation-prioritization\shiny\interpopulation-prioritization\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{087B1C5C-8047-4976-BCC2-B9A222C940FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE5822-13E5-4D79-9E1B-9C19F5C12F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-14895" windowWidth="22170" windowHeight="13440" tabRatio="660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria_RawVals" sheetId="51" r:id="rId1"/>
     <sheet name="Weights" sheetId="40" r:id="rId2"/>
     <sheet name="Definitions" sheetId="37" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="136">
   <si>
     <t>Herd</t>
   </si>
@@ -86,9 +84,6 @@
     <t>Lower distance increases ranking</t>
   </si>
   <si>
-    <t>Distance to Wells Grey Park, a large area of already protected habitat</t>
-  </si>
-  <si>
     <t>ColumbiaSouth</t>
   </si>
   <si>
@@ -98,25 +93,16 @@
     <t>Higher THLB increases ranking</t>
   </si>
   <si>
-    <t>Proportion of caribou range (core and matrix) with full THLB protection. Core and matrix can be given specific weighting below</t>
-  </si>
-  <si>
     <t>FrisbyBoulder</t>
   </si>
   <si>
     <t>THLB propn protected - Core</t>
   </si>
   <si>
-    <t>Proportion of core range with full THLB protection</t>
-  </si>
-  <si>
     <t>Groundhog</t>
   </si>
   <si>
     <t>THLB propn protected - Matrix</t>
-  </si>
-  <si>
-    <t>Proportion of matrix range with full THLB protection</t>
   </si>
   <si>
     <t>HartRanges</t>
@@ -147,24 +133,6 @@
   </si>
   <si>
     <t>WellsGraySouth</t>
-  </si>
-  <si>
-    <t>Proportion of core range with cutblocks &lt; 40 years</t>
-  </si>
-  <si>
-    <t>Proportion of matrix range with cutblocks &lt; 40 years</t>
-  </si>
-  <si>
-    <t>Proportion of core range with fire &lt; 40 years</t>
-  </si>
-  <si>
-    <t>Proportion of matrix range with fire &lt; 40 years</t>
-  </si>
-  <si>
-    <t>Proportion of core range with pest forest clearing &lt; 40 years</t>
-  </si>
-  <si>
-    <t>Proportion of matrix range with pest forest clearing &lt; 40 years</t>
   </si>
   <si>
     <t>THLB.propn.protected.Total</t>
@@ -200,25 +168,13 @@
     <t>Altered - Total Matrix</t>
   </si>
   <si>
-    <t>Altered.Static.Core</t>
-  </si>
-  <si>
     <t>Altered - Static Core</t>
-  </si>
-  <si>
-    <t>Altered.Static.Matrix</t>
   </si>
   <si>
     <t>Altered - Static Matrix</t>
   </si>
   <si>
-    <t>Altered.Temporal.Core</t>
-  </si>
-  <si>
     <t>Altered - Temporal Core</t>
-  </si>
-  <si>
-    <t>Altered.Temporal.Matrix</t>
   </si>
   <si>
     <t>Altered - Temporal Matrix</t>
@@ -359,64 +315,130 @@
     <t>Number of caribou</t>
   </si>
   <si>
-    <t>Latitude (NAD83 BC Environmental Albers - meters)</t>
-  </si>
-  <si>
     <t>Effect</t>
   </si>
   <si>
-    <t>Proportion of core range with temporal altered. Categories broken apart in yellow below for specific weighting</t>
+    <t>Lower altered increases ranking</t>
   </si>
   <si>
-    <t>Proportion of matrix range with temporal altered. Categories broken apart in yellow below for specific weighting</t>
+    <t>Altered - Permanent Core</t>
   </si>
   <si>
-    <t>Proportion of core range with agriculture altered</t>
+    <t>Altered - Permanent Matrix</t>
   </si>
   <si>
-    <t>Proportion of matrix range with agriculture altered</t>
+    <t>Altered - Temporary Core</t>
   </si>
   <si>
-    <t>Proportion of core range with urban altered</t>
+    <t>Altered - Temporary Matrix</t>
   </si>
   <si>
-    <t>Proportion of matrix range with urban altered</t>
+    <t>Altered.Temporary.Core</t>
   </si>
   <si>
-    <t>Proportion of core range with roadway altered</t>
+    <t>Altered.Temporary.Matrix</t>
   </si>
   <si>
-    <t>Proportion of matrix range with roadway altered</t>
+    <t>Altered.Permanent.Core</t>
   </si>
   <si>
-    <t>Proportion of core range with mining altered</t>
+    <t>Altered.Permanent.Matrix</t>
   </si>
   <si>
-    <t>Proportion of matrix range with mining altered</t>
+    <t xml:space="preserve">Proportion of core range with permanent habitat alteration. </t>
   </si>
   <si>
-    <t>Proportion of core range with transmission line altered</t>
+    <t xml:space="preserve">Proportion of matrix range with permanent habitat alteration. </t>
   </si>
   <si>
-    <t>Proportion of matrix range with transmission line altered</t>
+    <t>Proportion of matrix range with permanent habitat alteration.</t>
   </si>
   <si>
-    <t>Add weight here to further emphasize young altered that will soon become forest age selected by moose</t>
+    <t xml:space="preserve">Proportion of core range with temporary habitat alteration. </t>
   </si>
   <si>
-    <t>Proportion of core range with static or permanent altered. Categories broken apart in orange and yellow below for specific weighting</t>
+    <t xml:space="preserve">Proportion of core range permanently altered by agriculture.  </t>
   </si>
   <si>
-    <t>Proportion of matrix range with static or permanent altered. Categories broken apart in orange and yellow below for specific weighting</t>
+    <t>Proportion of matrix range permanently altered by agriculture.</t>
   </si>
   <si>
-    <t>Proportion of core range with static, permanent altered. Categories broken apart in yellow below for specific weighting</t>
+    <t>Proportion of core range permanently altered by roadways.</t>
   </si>
   <si>
-    <t>Proportion of matrix range with static, permanent altered. Categories broken apart in yellow below for specific weighting</t>
+    <t>Proportion of matrix range permanently altered by roadways.</t>
   </si>
   <si>
-    <t>Lower altered increases ranking</t>
+    <t xml:space="preserve">Proportion of core range permanently altered by mining.  </t>
+  </si>
+  <si>
+    <t>Proportion of matrix range permanently altered by mining.</t>
+  </si>
+  <si>
+    <t>Proportion of core range permanently altered by transmission lines.</t>
+  </si>
+  <si>
+    <t>Proportion of matrix range wpermanently altered by transmission lines.</t>
+  </si>
+  <si>
+    <t>Proportion of core range temporarily altered by fire &lt; 40 years old.</t>
+  </si>
+  <si>
+    <t>Proportion of core range temporarily altered by cutblocks &lt; 40 years old.</t>
+  </si>
+  <si>
+    <t>Proportion of matrix range temporarily altered by cutblocks &lt; 40 years old.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of matrix range with temporary habitat alteration. </t>
+  </si>
+  <si>
+    <t>Proportion of matrix range temporarily altered by fire &lt; 40 years old.</t>
+  </si>
+  <si>
+    <t>Proportion of matrix range temporarily altered by cutblocks &lt;10 years old. Add weight here to further emphasize recently altered forest that will soon become forest age selected by moose</t>
+  </si>
+  <si>
+    <t>Proportion of core range temporarily altered by cutblocks &lt;10 years old. Add weight here to further emphasize recently altered forest that will soon become forest age selected by moose</t>
+  </si>
+  <si>
+    <t>Proportion of core range temporarily altered by pest forest clearing &lt; 40 years old.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of matrix range temporarily altered by pest forest clearing &lt; 40 years old. </t>
+  </si>
+  <si>
+    <t>Proportion of core range temporarily altered by pest forest clearing &lt; 10 years old. Add weight here to further emphasize young altered that will soon become forest age selected by moose</t>
+  </si>
+  <si>
+    <t>Latitude (North in meters)</t>
+  </si>
+  <si>
+    <t>Distance to Wells Grey Park, a large area of already protected habitat (meters)</t>
+  </si>
+  <si>
+    <t>Proportion of caribou range (core and matrix) with full THLB protection. Timber Harvesting Land Base (THLB) only includes areas that produce merchantable timber.</t>
+  </si>
+  <si>
+    <t>Proportion of core range with full THLB protection. Timber Harvesting Land Base (THLB) only includes areas that produce merchantable timber.</t>
+  </si>
+  <si>
+    <t>Proportion of matrix range with full THLB protection. Timber Harvesting Land Base (THLB) only includes areas that produce merchantable timber.</t>
+  </si>
+  <si>
+    <t>Proportion of core range permanently altered by urban areas.</t>
+  </si>
+  <si>
+    <t>Proportion of matrix range permanently altered by urban areas.</t>
+  </si>
+  <si>
+    <t>Proportion of matrix range temporarily altered by fire &lt;10 years old. Add weight here to further emphasize recently altered forest that will soon become forest age selected by moose</t>
+  </si>
+  <si>
+    <t>Proportion of matrix range temporarily altered by pest forest clearing &lt; 10 years old. Add weight here to further emphasize young altered that will soon become forest age selected by moose</t>
+  </si>
+  <si>
+    <t>Proportion of core range temporarily altered by fire &lt;10 years old. Add weight here to further emphasize recently altered forest that will soon become forest age selected by moose</t>
   </si>
 </sst>
 </file>
@@ -759,14 +781,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B252AC80-4AB8-4CF7-A474-A28B55E56364}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -786,97 +841,97 @@
         <v>15</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="I1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="Q1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="R1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="S1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="T1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="U1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="Y1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="Z1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="AA1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="AB1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="AC1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="AD1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="AE1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="AF1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AH1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AI1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF1" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG1" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1321,7 +1376,7 @@
     </row>
     <row r="6" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="23">
         <v>5</v>
@@ -1431,7 +1486,7 @@
     </row>
     <row r="7" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="23">
         <v>7</v>
@@ -1541,7 +1596,7 @@
     </row>
     <row r="8" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="23">
         <v>31</v>
@@ -1651,7 +1706,7 @@
     </row>
     <row r="9" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="24">
         <v>396</v>
@@ -1761,7 +1816,7 @@
     </row>
     <row r="10" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="23">
         <v>1</v>
@@ -1871,7 +1926,7 @@
     </row>
     <row r="11" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="24">
         <v>15</v>
@@ -1981,7 +2036,7 @@
     </row>
     <row r="12" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="24">
         <v>146</v>
@@ -2091,7 +2146,7 @@
     </row>
     <row r="13" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="23">
         <v>0</v>
@@ -2201,7 +2256,7 @@
     </row>
     <row r="14" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="23">
         <v>0</v>
@@ -2311,7 +2366,7 @@
     </row>
     <row r="15" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="24">
         <v>153</v>
@@ -2421,7 +2476,7 @@
     </row>
     <row r="16" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="22">
         <v>0</v>
@@ -2531,7 +2586,7 @@
     </row>
     <row r="17" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>249</v>
@@ -2641,7 +2696,7 @@
     </row>
     <row r="18" spans="1:36" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="22">
         <v>162</v>
@@ -2783,97 +2838,97 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>66</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>72</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>76</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>78</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" t="s">
         <v>80</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>82</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AF1" t="s">
         <v>86</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AG1" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AH1" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AI1" t="s">
         <v>92</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -2992,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF51957-27C9-4AA4-94EC-E55DB633115F}">
   <dimension ref="A1:E16385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3006,13 +3061,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -3023,7 +3078,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -3032,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E2" s="21">
         <v>5</v>
@@ -3040,7 +3095,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -3066,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E4" s="21">
         <v>5</v>
@@ -3074,7 +3129,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
@@ -3083,7 +3138,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="E5" s="21">
         <v>5</v>
@@ -3091,16 +3146,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E6" s="21">
         <v>0</v>
@@ -3108,16 +3163,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="E7" s="21">
         <v>0</v>
@@ -3125,16 +3180,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="E8" s="21">
         <v>0</v>
@@ -3142,16 +3197,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E9" s="21">
         <v>0</v>
@@ -3159,16 +3214,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E10" s="21">
         <v>0</v>
@@ -3176,16 +3231,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E11" s="21">
         <v>10</v>
@@ -3193,16 +3248,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E12" s="21">
         <v>10</v>
@@ -3210,16 +3265,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" s="21">
         <v>0</v>
@@ -3227,16 +3282,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E14" s="21">
         <v>0</v>
@@ -3244,16 +3299,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E15" s="21">
         <v>0</v>
@@ -3261,16 +3316,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E16" s="21">
         <v>10</v>
@@ -3278,16 +3333,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E17" s="21">
         <v>0</v>
@@ -3295,16 +3350,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E18" s="21">
         <v>0</v>
@@ -3312,16 +3367,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E19" s="21">
         <v>5</v>
@@ -3329,16 +3384,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E20" s="21">
         <v>5</v>
@@ -3346,16 +3401,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E21" s="21">
         <v>0</v>
@@ -3363,16 +3418,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E22" s="21">
         <v>0</v>
@@ -3380,16 +3435,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E23" s="21">
         <v>0</v>
@@ -3397,16 +3452,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E24" s="21">
         <v>0</v>
@@ -3414,16 +3469,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E25" s="21">
         <v>10</v>
@@ -3431,16 +3486,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="E26" s="21">
         <v>10</v>
@@ -3448,13 +3503,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>122</v>
@@ -3465,16 +3520,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="21">
         <v>7.5</v>
@@ -3482,16 +3537,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E29" s="21">
         <v>0</v>
@@ -3499,16 +3554,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="E30" s="21">
         <v>0</v>
@@ -3516,16 +3571,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E31" s="21">
         <v>5</v>
@@ -3533,16 +3588,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E32" s="21">
         <v>5</v>
@@ -3550,16 +3605,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E33" s="21">
         <v>0</v>
@@ -3567,16 +3622,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="E34" s="21">
         <v>0</v>
@@ -3584,16 +3639,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E35" s="21">
         <v>0</v>
@@ -3601,16 +3656,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E36" s="21">
         <v>0</v>
